--- a/input_wbes.xlsx
+++ b/input_wbes.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="152">
   <si>
     <t>DHAULIGNGA</t>
   </si>
@@ -481,6 +481,9 @@
   </si>
   <si>
     <t>Solar Perc</t>
+  </si>
+  <si>
+    <t>Hydro Perc After  08_03_2019</t>
   </si>
 </sst>
 </file>
@@ -886,7 +889,7 @@
   <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1480,16 +1483,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.140625" customWidth="1"/>
     <col min="7" max="7" width="29.7109375" bestFit="1" customWidth="1"/>
@@ -1511,7 +1514,7 @@
         <v>144</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>33</v>
@@ -1576,10 +1579,10 @@
         <v>63</v>
       </c>
       <c r="L2" s="15">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="M2" s="15">
-        <v>44681</v>
+        <v>44834</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
